--- a/Plate_Layouts/GSE113957vsGSE66053.xlsx
+++ b/Plate_Layouts/GSE113957vsGSE66053.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryl/Documents/Daryl/Masters Thesis/Sobi/Extra Data/Plate_Layouts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryl/Documents/Daryl/Masters Thesis/Sobi/Master_Thesis/Plate_Layouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB783D76-D363-0543-BA21-5C51653F9908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7887FA-1E34-1943-9382-C589924AC62D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="24700" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="90">
   <si>
     <t>Well number</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>GSE66053</t>
+  </si>
+  <si>
+    <t>SRR1810676</t>
+  </si>
+  <si>
+    <t>SRR1810677</t>
+  </si>
+  <si>
+    <t>SRR1810678</t>
   </si>
 </sst>
 </file>
@@ -332,10 +341,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1526,6 +1536,39 @@
         <v>86</v>
       </c>
     </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
